--- a/Kvaser/BETest/BESensorlessParams.xlsx
+++ b/Kvaser/BETest/BESensorlessParams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SensorLess\Software\Kvaser\BETest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6405A3B5-DCE2-4AFC-957B-1D82614BA47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6170F8A0-F471-42B6-804C-B3D23A541ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DefaultPars" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="165">
   <si>
     <t>Name</t>
   </si>
@@ -341,6 +341,18 @@
   </si>
   <si>
     <t>Current for the full range of the ADC (over-ridden)</t>
+  </si>
+  <si>
+    <t>ClaControlPars.VoltageDacGain</t>
+  </si>
+  <si>
+    <t>DAC gain for integrating phase voltage</t>
+  </si>
+  <si>
+    <t>ClaControlPars.DcCurrentDacGain</t>
+  </si>
+  <si>
+    <t>DAC gain for integrating DC supply current</t>
   </si>
   <si>
     <t>ClaControlPars.MaxCurCmdDdt</t>
@@ -829,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F62"/>
+      <selection sqref="A1:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -968,144 +980,144 @@
         <v>104</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
         <v>1000000</v>
       </c>
       <c r="E7">
-        <v>10000</v>
+        <v>0.66666999999999998</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D8">
         <v>1000000</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C9">
-        <v>9.9999999999999995E-7</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>1000000</v>
       </c>
       <c r="E9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C10">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>30000</v>
+        <v>1000000</v>
       </c>
       <c r="E10">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>0.63</v>
+        <v>1.5</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D12">
-        <v>1000000</v>
+        <v>30000</v>
       </c>
       <c r="E12">
-        <v>0.88</v>
+        <v>6000</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>9.9999999999999995E-8</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>52</v>
+        <v>0.63</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>9.9999999999999995E-8</v>
@@ -1114,18 +1126,18 @@
         <v>1000000</v>
       </c>
       <c r="E14">
-        <v>27</v>
+        <v>0.88</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15">
         <v>9.9999999999999995E-8</v>
@@ -1134,18 +1146,18 @@
         <v>1000000</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>680</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>9.9999999999999995E-8</v>
@@ -1154,47 +1166,47 @@
         <v>1000000</v>
       </c>
       <c r="E16">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D17">
         <v>1000000</v>
       </c>
       <c r="E17">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>110</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D18">
         <v>1000000</v>
       </c>
       <c r="E18">
-        <v>2000</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
         <v>111</v>
@@ -1202,70 +1214,70 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C19">
-        <v>-1000000</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>-9.9999999999999995E-7</v>
+        <v>1000000</v>
       </c>
       <c r="E19">
-        <v>-24</v>
+        <v>500</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C20">
-        <v>9.9999999999999995E-8</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1000000</v>
       </c>
       <c r="E20">
-        <v>24</v>
+        <v>2000</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>9.9999999999999995E-8</v>
+        <v>-1000000</v>
       </c>
       <c r="D21">
-        <v>1000000</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="E21">
-        <v>24</v>
+        <v>-24</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <v>9.9999999999999995E-8</v>
@@ -1274,187 +1286,187 @@
         <v>1000000</v>
       </c>
       <c r="E22">
-        <v>5.0000000000000001E-3</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="E23">
-        <v>1.85302E-2</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="E24">
-        <v>2.01E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>0.42020000000000002</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C26">
-        <v>9.9999999999999995E-8</v>
+        <v>-1</v>
       </c>
       <c r="D26">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>270</v>
+        <v>2.01E-2</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C27">
-        <v>9.9999999999999995E-8</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>1000000</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="E28">
-        <v>0.1</v>
+        <v>270</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>4000000</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1440</v>
+        <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>116</v>
       </c>
       <c r="C31">
+        <v>-1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>0</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>2.1</v>
       </c>
       <c r="F31" t="s">
         <v>117</v>
@@ -1462,19 +1474,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>118</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>4000000</v>
       </c>
       <c r="E32">
-        <v>2.56</v>
+        <v>1440</v>
       </c>
       <c r="F32" t="s">
         <v>119</v>
@@ -1482,19 +1494,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>120</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>19</v>
+        <v>2.1</v>
       </c>
       <c r="F33" t="s">
         <v>121</v>
@@ -1502,19 +1514,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>122</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>60</v>
+        <v>2.56</v>
       </c>
       <c r="F34" t="s">
         <v>123</v>
@@ -1522,159 +1534,159 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>124</v>
       </c>
       <c r="C35">
-        <v>0.01</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>3.25</v>
+        <v>45</v>
       </c>
       <c r="E35">
-        <v>2.75</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="E36">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C37">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D37">
-        <v>0.17</v>
+        <v>3.25</v>
       </c>
       <c r="E37">
-        <v>3.3300000000000003E-2</v>
+        <v>2.75</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="E39">
-        <v>0.3</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>16.5</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="E41">
+        <v>0.3</v>
+      </c>
+      <c r="F41" t="s">
         <v>85</v>
-      </c>
-      <c r="F41" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
         <v>133</v>
       </c>
       <c r="C42">
-        <v>1E-3</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E42">
-        <v>0.1</v>
+        <v>16.5</v>
       </c>
       <c r="F42" t="s">
         <v>134</v>
@@ -1682,19 +1694,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
         <v>135</v>
       </c>
       <c r="C43">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="F43" t="s">
         <v>136</v>
@@ -1702,7 +1714,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
         <v>137</v>
@@ -1714,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F44" t="s">
         <v>138</v>
@@ -1722,7 +1734,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
         <v>139</v>
@@ -1734,7 +1746,7 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>6.5000000000000002E-2</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>140</v>
@@ -1742,7 +1754,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
         <v>141</v>
@@ -1754,7 +1766,7 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>142</v>
@@ -1762,7 +1774,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
         <v>143</v>
@@ -1774,7 +1786,7 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>0.1</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F47" t="s">
         <v>144</v>
@@ -1782,239 +1794,239 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C48">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D48">
         <v>15</v>
       </c>
       <c r="E48">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="C49">
-        <v>9.9999999999999995E-8</v>
+        <v>1E-3</v>
       </c>
       <c r="D49">
-        <v>1000000</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C50">
-        <v>-1.5</v>
+        <v>1E-4</v>
       </c>
       <c r="D50">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="F50" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>240</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="E51">
-        <v>38</v>
+        <v>0.1</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="C52">
-        <v>1E-3</v>
+        <v>-1.5</v>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>1.5</v>
       </c>
       <c r="E52">
-        <v>8.5000000000000006E-2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C53">
-        <v>1E-8</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E53">
-        <v>2.5000000000000001E-5</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C54">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="D54">
         <v>100</v>
       </c>
       <c r="E54">
-        <v>7.071E-3</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F54" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C55">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>0.1225</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="F55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C56">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D56">
         <v>100</v>
       </c>
       <c r="E56">
-        <v>0.15</v>
+        <v>7.071E-3</v>
       </c>
       <c r="F56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="C57">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D57">
-        <v>0.99999998999999995</v>
+        <v>100</v>
       </c>
       <c r="E57">
-        <v>1.6659999999999999E-3</v>
+        <v>0.1225</v>
       </c>
       <c r="F57" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D58">
-        <v>0.99999998999999995</v>
+        <v>100</v>
       </c>
       <c r="E58">
-        <v>1.25E-3</v>
+        <v>0.15</v>
       </c>
       <c r="F58" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B59" t="s">
         <v>153</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D59">
-        <v>9999.9999000000007</v>
+        <v>0.99999998999999995</v>
       </c>
       <c r="E59">
-        <v>0.45</v>
+        <v>1.6659999999999999E-3</v>
       </c>
       <c r="F59" t="s">
         <v>154</v>
@@ -2022,7 +2034,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B60" t="s">
         <v>155</v>
@@ -2034,7 +2046,7 @@
         <v>0.99999998999999995</v>
       </c>
       <c r="E60">
-        <v>0.08</v>
+        <v>1.25E-3</v>
       </c>
       <c r="F60" t="s">
         <v>156</v>
@@ -2042,7 +2054,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s">
         <v>157</v>
@@ -2051,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0.99999998999999995</v>
+        <v>9999.9999000000007</v>
       </c>
       <c r="E61">
-        <v>2E-3</v>
+        <v>0.45</v>
       </c>
       <c r="F61" t="s">
         <v>158</v>
@@ -2062,22 +2074,62 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s">
         <v>159</v>
       </c>
       <c r="C62">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>0.99999998999999995</v>
       </c>
       <c r="E62">
-        <v>0.65</v>
+        <v>0.08</v>
       </c>
       <c r="F62" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>251</v>
+      </c>
+      <c r="B63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="E63">
+        <v>2E-3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>252</v>
+      </c>
+      <c r="B64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64">
+        <v>-2</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>0.65</v>
+      </c>
+      <c r="F64" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Kvaser/BETest/BESensorlessParams.xlsx
+++ b/Kvaser/BETest/BESensorlessParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SensorLess\Software\Kvaser\BETest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6170F8A0-F471-42B6-804C-B3D23A541ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8877C44E-4105-4936-BAB9-765EE7C195B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DefaultPars" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -485,9 +485,6 @@
   </si>
   <si>
     <t>ClaMailIn.StoTholdScale</t>
-  </si>
-  <si>
-    <t>Simulation motor Resistance</t>
   </si>
   <si>
     <t>ClaControlPars.ExtCutCst</t>
@@ -841,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F64"/>
+      <selection sqref="A1:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1894,242 +1891,122 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>0.99999998999999995</v>
       </c>
       <c r="E53">
-        <v>38</v>
+        <v>1.6659999999999999E-3</v>
       </c>
       <c r="F53" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C54">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>100</v>
+        <v>0.99999998999999995</v>
       </c>
       <c r="E54">
-        <v>8.5000000000000006E-2</v>
+        <v>1.25E-3</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="C55">
-        <v>1E-8</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>9999.9999000000007</v>
       </c>
       <c r="E55">
-        <v>2.5000000000000001E-5</v>
+        <v>0.45</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="C56">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>100</v>
+        <v>0.99999998999999995</v>
       </c>
       <c r="E56">
-        <v>7.071E-3</v>
+        <v>0.08</v>
       </c>
       <c r="F56" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="C57">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>100</v>
+        <v>0.99999998999999995</v>
       </c>
       <c r="E57">
-        <v>0.1225</v>
+        <v>2E-3</v>
       </c>
       <c r="F57" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="C58">
-        <v>9.9999999999999995E-7</v>
+        <v>-2</v>
       </c>
       <c r="D58">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="F58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>247</v>
-      </c>
-      <c r="B59" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D59">
-        <v>0.99999998999999995</v>
-      </c>
-      <c r="E59">
-        <v>1.6659999999999999E-3</v>
-      </c>
-      <c r="F59" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>248</v>
-      </c>
-      <c r="B60" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0.99999998999999995</v>
-      </c>
-      <c r="E60">
-        <v>1.25E-3</v>
-      </c>
-      <c r="F60" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>249</v>
-      </c>
-      <c r="B61" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>9999.9999000000007</v>
-      </c>
-      <c r="E61">
-        <v>0.45</v>
-      </c>
-      <c r="F61" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>250</v>
-      </c>
-      <c r="B62" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0.99999998999999995</v>
-      </c>
-      <c r="E62">
-        <v>0.08</v>
-      </c>
-      <c r="F62" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>251</v>
-      </c>
-      <c r="B63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0.99999998999999995</v>
-      </c>
-      <c r="E63">
-        <v>2E-3</v>
-      </c>
-      <c r="F63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>252</v>
-      </c>
-      <c r="B64" t="s">
         <v>163</v>
-      </c>
-      <c r="C64">
-        <v>-2</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>0.65</v>
-      </c>
-      <c r="F64" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Kvaser/BETest/BESensorlessParams.xlsx
+++ b/Kvaser/BETest/BESensorlessParams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SensorLess\Software\Kvaser\BETest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8877C44E-4105-4936-BAB9-765EE7C195B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15CF035-5C51-4FEE-834A-32BFB086D37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DefaultPars" sheetId="1" r:id="rId1"/>
@@ -1060,7 +1060,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>1.5</v>
@@ -1080,7 +1080,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D12">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="E12">
         <v>6000</v>

--- a/Kvaser/BETest/BESensorlessParams.xlsx
+++ b/Kvaser/BETest/BESensorlessParams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SensorLess\Software\Kvaser\BETest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15CF035-5C51-4FEE-834A-32BFB086D37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71E062C-2FDB-46A7-8F64-4F7C9A3BED7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DefaultPars" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -482,6 +482,78 @@
   </si>
   <si>
     <t>Required maximal position error for consecutive MotionConvergeTime to declare motion convergence</t>
+  </si>
+  <si>
+    <t>SLPars.PhiM</t>
+  </si>
+  <si>
+    <t>Flux of magnet</t>
+  </si>
+  <si>
+    <t>SLPars.Lq0</t>
+  </si>
+  <si>
+    <t>Nominal inductance for q</t>
+  </si>
+  <si>
+    <t>SLPars.LqCorner2</t>
+  </si>
+  <si>
+    <t>Saturation current for q field</t>
+  </si>
+  <si>
+    <t>SLPars.Ld0</t>
+  </si>
+  <si>
+    <t>Nominal inductance for d</t>
+  </si>
+  <si>
+    <t>SLPars.LdSlope</t>
+  </si>
+  <si>
+    <t>Linear dependence of D inductance in d current</t>
+  </si>
+  <si>
+    <t>SLPars.R</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>SLPars.KiTheta</t>
+  </si>
+  <si>
+    <t>Ki of the theta PLL</t>
+  </si>
+  <si>
+    <t>SLPars.KpTheta</t>
+  </si>
+  <si>
+    <t>Kp of the theta PLL</t>
+  </si>
+  <si>
+    <t>SLPars.KiFlux</t>
+  </si>
+  <si>
+    <t>KiFlux</t>
+  </si>
+  <si>
+    <t>SLPars.KpFlux</t>
+  </si>
+  <si>
+    <t>KpFlux</t>
+  </si>
+  <si>
+    <t>SLPars.DInjectionFreqFac</t>
+  </si>
+  <si>
+    <t>Factor between D injection frequency and motor frequency</t>
+  </si>
+  <si>
+    <t>SLPars.DInjectionAmp</t>
+  </si>
+  <si>
+    <t>D injection amplitude in Amp</t>
   </si>
   <si>
     <t>ClaMailIn.StoTholdScale</t>
@@ -838,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F58"/>
+      <selection sqref="A1:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0.42020000000000002</v>
+        <v>7.9229629629629997E-2</v>
       </c>
       <c r="F25" t="s">
         <v>65</v>
@@ -1871,142 +1943,382 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
         <v>151</v>
       </c>
       <c r="C52">
-        <v>-1.5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D52">
-        <v>1.5</v>
+        <v>1000000</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0.105</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C53">
-        <v>9.9999999999999995E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D53">
-        <v>0.99999998999999995</v>
+        <v>1000000</v>
       </c>
       <c r="E53">
-        <v>1.6659999999999999E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0.99999998999999995</v>
+        <v>1000000</v>
       </c>
       <c r="E54">
-        <v>1.25E-3</v>
+        <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>9999.9999000000007</v>
+        <v>1000000</v>
       </c>
       <c r="E55">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.99999998999999995</v>
+        <v>1000000</v>
       </c>
       <c r="E56">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D57">
-        <v>0.99999998999999995</v>
+        <v>1000000</v>
       </c>
       <c r="E57">
-        <v>2E-3</v>
+        <v>0.13</v>
       </c>
       <c r="F57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D58">
+        <v>1000000</v>
+      </c>
+      <c r="E58">
+        <v>7802.6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D59">
+        <v>1000000</v>
+      </c>
+      <c r="E59">
+        <v>149.0188</v>
+      </c>
+      <c r="F59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D60">
+        <v>1000000</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D61">
+        <v>1000000</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D62">
+        <v>1000000</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D63">
+        <v>1000000</v>
+      </c>
+      <c r="E63">
+        <v>0.9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>239</v>
+      </c>
+      <c r="B64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64">
+        <v>-1.5</v>
+      </c>
+      <c r="D64">
+        <v>1.5</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>247</v>
+      </c>
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D65">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="E65">
+        <v>1.6659999999999999E-3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>248</v>
+      </c>
+      <c r="B66" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="E66">
+        <v>1.25E-3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>249</v>
+      </c>
+      <c r="B67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>9999.9999000000007</v>
+      </c>
+      <c r="E67">
+        <v>0.45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>250</v>
+      </c>
+      <c r="B68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="E68">
+        <v>0.08</v>
+      </c>
+      <c r="F68" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>251</v>
+      </c>
+      <c r="B69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="E69">
+        <v>2E-3</v>
+      </c>
+      <c r="F69" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>252</v>
       </c>
-      <c r="B58" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58">
+      <c r="B70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70">
         <v>-2</v>
       </c>
-      <c r="D58">
+      <c r="D70">
         <v>2</v>
       </c>
-      <c r="E58">
+      <c r="E70">
         <v>0.65</v>
       </c>
-      <c r="F58" t="s">
-        <v>163</v>
+      <c r="F70" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Kvaser/BETest/BESensorlessParams.xlsx
+++ b/Kvaser/BETest/BESensorlessParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SensorLess\Software\Kvaser\BETest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71E062C-2FDB-46A7-8F64-4F7C9A3BED7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAD21CE-FAB8-4182-844A-F46A4F669669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DefaultPars" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="218">
   <si>
     <t>Name</t>
   </si>
@@ -484,6 +484,24 @@
     <t>Required maximal position error for consecutive MotionConvergeTime to declare motion convergence</t>
   </si>
   <si>
+    <t>SysState.StepperCurrent.StaticCurrent</t>
+  </si>
+  <si>
+    <t>Static Current for stepper mode</t>
+  </si>
+  <si>
+    <t>SysState.StepperCurrent.SpeedCurrent</t>
+  </si>
+  <si>
+    <t>Speed dependent Current for stepper mode</t>
+  </si>
+  <si>
+    <t>SysState.StepperCurrent.AccelerationCurrent</t>
+  </si>
+  <si>
+    <t>Acceleration dependent Current for stepper mode</t>
+  </si>
+  <si>
     <t>SLPars.PhiM</t>
   </si>
   <si>
@@ -556,7 +574,79 @@
     <t>D injection amplitude in Amp</t>
   </si>
   <si>
+    <t>SLPars.FomPars.CyclesForConvergenceApproval</t>
+  </si>
+  <si>
+    <t>The number of cycles in open loop mode in which the observer must show convergence</t>
+  </si>
+  <si>
+    <t>SLPars.FomPars.ObserverConvergenceToleranceFrac</t>
+  </si>
+  <si>
+    <t>The acceptable fraction of deviation from the expected speed</t>
+  </si>
+  <si>
+    <t>SLPars.FomPars.MaximumSteadyStateFieldRetard</t>
+  </si>
+  <si>
+    <t>The maximum field retard acceptable on steady state.</t>
+  </si>
+  <si>
+    <t>SLPars.FomPars.MinimumSteadyStateFieldRetard</t>
+  </si>
+  <si>
+    <t>The minimum field retard acceptable on steady state.</t>
+  </si>
+  <si>
+    <t>SLPars.FomPars.FOMTakingStartSpeed</t>
+  </si>
+  <si>
+    <t>Speed following which FOM is taken</t>
+  </si>
+  <si>
+    <t>SLPars.FomPars.OpenLoopAcceleration</t>
+  </si>
+  <si>
+    <t>The acceleration rate to OpenLoopEndSpeed</t>
+  </si>
+  <si>
+    <t>SLPars.FomPars.FOMConvergenceTimeout</t>
+  </si>
+  <si>
+    <t>Timeout for FOM convergence decision</t>
+  </si>
+  <si>
+    <t>SLPars.FomPars.OmegaCommutationLoss</t>
+  </si>
+  <si>
+    <t>Speed that if you go below you consider commutation loss</t>
+  </si>
+  <si>
+    <t>SLPars.WorkAcceleration</t>
+  </si>
+  <si>
+    <t>Acceleration to working speed</t>
+  </si>
+  <si>
+    <t>SLPars.WorkSpeed</t>
+  </si>
+  <si>
+    <t>Working speed</t>
+  </si>
+  <si>
+    <t>SLPars.FomPars.InitiallStabilizationTime</t>
+  </si>
+  <si>
+    <t>Time for initial rotor stabilization</t>
+  </si>
+  <si>
     <t>ClaMailIn.StoTholdScale</t>
+  </si>
+  <si>
+    <t>ClaControlPars.DCurrentMaxDiDt</t>
+  </si>
+  <si>
+    <t>Maximum rate of D current commad change</t>
   </si>
   <si>
     <t>ClaControlPars.ExtCutCst</t>
@@ -910,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F70"/>
+      <selection sqref="A1:F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1035,7 +1125,7 @@
         <v>1000000</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -1675,7 +1765,7 @@
         <v>55</v>
       </c>
       <c r="E38">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
         <v>130</v>
@@ -1943,19 +2033,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
         <v>151</v>
       </c>
       <c r="C52">
-        <v>9.9999999999999995E-8</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1000000</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>0.105</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
         <v>152</v>
@@ -1963,19 +2053,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
         <v>153</v>
       </c>
       <c r="C53">
-        <v>9.9999999999999995E-8</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1000000</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>5.0000000000000001E-4</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>154</v>
@@ -1983,7 +2073,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
         <v>155</v>
@@ -1992,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1000000</v>
+        <v>100</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>156</v>
@@ -2003,19 +2093,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
         <v>157</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D55">
         <v>1000000</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F55" t="s">
         <v>158</v>
@@ -2023,19 +2113,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
         <v>159</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D56">
         <v>1000000</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F56" t="s">
         <v>160</v>
@@ -2043,19 +2133,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
         <v>161</v>
       </c>
       <c r="C57">
-        <v>9.9999999999999995E-8</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>1000000</v>
       </c>
       <c r="E57">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
         <v>162</v>
@@ -2063,19 +2153,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
         <v>163</v>
       </c>
       <c r="C58">
-        <v>9.9999999999999995E-8</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>1000000</v>
       </c>
       <c r="E58">
-        <v>7802.6</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F58" t="s">
         <v>164</v>
@@ -2083,19 +2173,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
         <v>165</v>
       </c>
       <c r="C59">
-        <v>9.9999999999999995E-8</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>1000000</v>
       </c>
       <c r="E59">
-        <v>149.0188</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
         <v>166</v>
@@ -2103,7 +2193,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
         <v>167</v>
@@ -2115,7 +2205,7 @@
         <v>1000000</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>0.13</v>
       </c>
       <c r="F60" t="s">
         <v>168</v>
@@ -2123,7 +2213,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
         <v>169</v>
@@ -2135,7 +2225,7 @@
         <v>1000000</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>7802.6</v>
       </c>
       <c r="F61" t="s">
         <v>170</v>
@@ -2143,7 +2233,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
         <v>171</v>
@@ -2155,7 +2245,7 @@
         <v>1000000</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>149.0188</v>
       </c>
       <c r="F62" t="s">
         <v>172</v>
@@ -2163,7 +2253,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
         <v>173</v>
@@ -2175,7 +2265,7 @@
         <v>1000000</v>
       </c>
       <c r="E63">
-        <v>0.9</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s">
         <v>174</v>
@@ -2183,142 +2273,442 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
         <v>175</v>
       </c>
       <c r="C64">
-        <v>-1.5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D64">
-        <v>1.5</v>
+        <v>1000000</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="F64" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C65">
-        <v>9.9999999999999995E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D65">
-        <v>0.99999998999999995</v>
+        <v>1000000</v>
       </c>
       <c r="E65">
-        <v>1.6659999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D66">
-        <v>0.99999998999999995</v>
+        <v>1000000</v>
       </c>
       <c r="E66">
-        <v>1.25E-3</v>
+        <v>0.9</v>
       </c>
       <c r="F66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D67">
-        <v>9999.9999000000007</v>
+        <v>1000000</v>
       </c>
       <c r="E67">
-        <v>0.45</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D68">
-        <v>0.99999998999999995</v>
+        <v>1000000</v>
       </c>
       <c r="E68">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.99999998999999995</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>2E-3</v>
+        <v>0.17</v>
       </c>
       <c r="F69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
+        <v>125</v>
+      </c>
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70">
+        <v>-1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>-0.05</v>
+      </c>
+      <c r="F70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>126</v>
+      </c>
+      <c r="B71" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D71">
+        <v>1000000</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>127</v>
+      </c>
+      <c r="B72" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D72">
+        <v>1000000</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>128</v>
+      </c>
+      <c r="B73" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D73">
+        <v>1000000</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>130</v>
+      </c>
+      <c r="B74" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D74">
+        <v>1000000</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>131</v>
+      </c>
+      <c r="B75" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D75">
+        <v>1000000</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>132</v>
+      </c>
+      <c r="B76" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D76">
+        <v>1000000</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>133</v>
+      </c>
+      <c r="B77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D77">
+        <v>1000000</v>
+      </c>
+      <c r="E77">
+        <v>1.5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>239</v>
+      </c>
+      <c r="B78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78">
+        <v>-1.5</v>
+      </c>
+      <c r="D78">
+        <v>1.5</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>246</v>
+      </c>
+      <c r="B79" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D79">
+        <v>99999999</v>
+      </c>
+      <c r="E79">
+        <v>200</v>
+      </c>
+      <c r="F79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>247</v>
+      </c>
+      <c r="B80" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D80">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="E80">
+        <v>1.6659999999999999E-3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>248</v>
+      </c>
+      <c r="B81" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="E81">
+        <v>1.25E-3</v>
+      </c>
+      <c r="F81" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>249</v>
+      </c>
+      <c r="B82" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>9999.9999000000007</v>
+      </c>
+      <c r="E82">
+        <v>0.45</v>
+      </c>
+      <c r="F82" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>250</v>
+      </c>
+      <c r="B83" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="E83">
+        <v>0.08</v>
+      </c>
+      <c r="F83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>251</v>
+      </c>
+      <c r="B84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="E84">
+        <v>2E-3</v>
+      </c>
+      <c r="F84" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>252</v>
       </c>
-      <c r="B70" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70">
+      <c r="B85" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85">
         <v>-2</v>
       </c>
-      <c r="D70">
+      <c r="D85">
         <v>2</v>
       </c>
-      <c r="E70">
+      <c r="E85">
         <v>0.65</v>
       </c>
-      <c r="F70" t="s">
-        <v>187</v>
+      <c r="F85" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
